--- a/data/session6data.xlsx
+++ b/data/session6data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christina/training/tidyverse/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1C885E-FB56-FC47-AF02-A466A3C86E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E33D30-A8CC-5040-AD06-69DF8FE27C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="4140" windowWidth="22040" windowHeight="12700" xr2:uid="{D022502B-E372-6346-8289-587CF6ECA690}"/>
+    <workbookView xWindow="4300" yWindow="5960" windowWidth="22040" windowHeight="12700" xr2:uid="{D022502B-E372-6346-8289-587CF6ECA690}"/>
   </bookViews>
   <sheets>
     <sheet name="registrations" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="125">
   <si>
     <t>Terminal Professional Degree Student (e.g. JD, MD)</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>listserv</t>
+  </si>
+  <si>
+    <t>Polisci</t>
   </si>
 </sst>
 </file>
@@ -761,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC119C3-0A57-5E47-9EE7-B629C52D25F4}">
   <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5808,7 +5811,7 @@
         <v>15</v>
       </c>
       <c r="F224" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="G224" t="s">
         <v>3</v>
